--- a/Income_aggregation.xlsx
+++ b/Income_aggregation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6822A873-5FE6-4530-80A7-8C298B1F9B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E343EE-B80D-4D6B-8361-2935F1BB1E18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AE83F2E-39CF-4155-8B1F-A69A251F6C7D}"/>
   </bookViews>
@@ -118,10 +118,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -160,13 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,8 +200,8 @@
       <sheetName val="MC_Middle_rd"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="E3">
@@ -209,15 +211,15 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AD3">
-            <v>495038361.84256536</v>
+            <v>524696166.88536906</v>
           </cell>
         </row>
         <row r="4">
           <cell r="AD4">
-            <v>1055749426.1889493</v>
+            <v>1078407016.010498</v>
           </cell>
           <cell r="AJ4">
-            <v>34.181755546546441</v>
+            <v>52.454458093841374</v>
           </cell>
         </row>
         <row r="6">
@@ -231,7 +233,7 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AC6">
-            <v>189785591.68157575</v>
+            <v>238916324.51399702</v>
           </cell>
         </row>
         <row r="7">
@@ -245,7 +247,7 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AC7">
-            <v>286672289.23605126</v>
+            <v>298725720.57375485</v>
           </cell>
         </row>
         <row r="8">
@@ -259,10 +261,10 @@
             <v>3.1067101981070513E-2</v>
           </cell>
           <cell r="AC8">
-            <v>1144193778.6976545</v>
+            <v>1290174209.9702103</v>
           </cell>
           <cell r="AJ8">
-            <v>8.8098868843439533</v>
+            <v>6.391114619170156</v>
           </cell>
         </row>
         <row r="10">
@@ -270,7 +272,7 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AC10">
-            <v>3334454.9374538087</v>
+            <v>7428682.6734889131</v>
           </cell>
         </row>
         <row r="11">
@@ -278,7 +280,7 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AC11">
-            <v>500232592.75170338</v>
+            <v>512286024.08940697</v>
           </cell>
         </row>
         <row r="12">
@@ -286,10 +288,10 @@
             <v>3.1067101981070513E-2</v>
           </cell>
           <cell r="AC12">
-            <v>1188229535.6465211</v>
+            <v>1352457520.8281465</v>
           </cell>
           <cell r="AJ12">
-            <v>9.3346823541083133</v>
+            <v>7.4792023352392185</v>
           </cell>
         </row>
         <row r="14">
@@ -297,7 +299,7 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AC14">
-            <v>3652148.1683470006</v>
+            <v>6372993.4644894339</v>
           </cell>
         </row>
         <row r="15">
@@ -305,7 +307,7 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AC15">
-            <v>508825203.89215201</v>
+            <v>561422731.1425674</v>
           </cell>
         </row>
         <row r="16">
@@ -313,10 +315,10 @@
             <v>3.1067101981070513E-2</v>
           </cell>
           <cell r="AC16">
-            <v>1155845546.0436394</v>
+            <v>1264984306.7050331</v>
           </cell>
           <cell r="AJ16">
-            <v>4.3464556252975344</v>
+            <v>4.4314928500850321</v>
           </cell>
         </row>
         <row r="18">
@@ -324,7 +326,7 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AC18">
-            <v>114010322.66426146</v>
+            <v>146594445.7373755</v>
           </cell>
         </row>
         <row r="19">
@@ -332,7 +334,7 @@
             <v>3.1067101981070509E-2</v>
           </cell>
           <cell r="AC19">
-            <v>461392664.92506915</v>
+            <v>476150796.67251956</v>
           </cell>
         </row>
         <row r="20">
@@ -340,18 +342,18 @@
             <v>3.1067101981070513E-2</v>
           </cell>
           <cell r="AC20">
-            <v>1192550797.5414603</v>
+            <v>1382459237.343091</v>
           </cell>
           <cell r="AJ20">
-            <v>6.2775584541235858</v>
+            <v>5.5361319172665224</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -371,15 +373,15 @@
       <sheetName val="MC_Middle_rd"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="E3">
             <v>0.61060040947831196</v>
           </cell>
           <cell r="AD3">
-            <v>176165591.29419202</v>
+            <v>184501420.35375419</v>
           </cell>
         </row>
         <row r="4">
@@ -387,7 +389,7 @@
             <v>140868944.02353191</v>
           </cell>
           <cell r="AJ4">
-            <v>33.794482368834295</v>
+            <v>63.302040978198747</v>
           </cell>
         </row>
         <row r="6">
@@ -401,7 +403,7 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC6">
-            <v>59396522.637604237</v>
+            <v>73697399.943386152</v>
           </cell>
         </row>
         <row r="7">
@@ -415,7 +417,7 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC7">
-            <v>96934287.033766255</v>
+            <v>103318685.93203142</v>
           </cell>
         </row>
         <row r="8">
@@ -429,10 +431,10 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC8">
-            <v>178132865.30678809</v>
+            <v>224678716.69549316</v>
           </cell>
           <cell r="AJ8">
-            <v>6.7039622320368348</v>
+            <v>5.8331865043635664</v>
           </cell>
         </row>
         <row r="10">
@@ -440,7 +442,7 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC10">
-            <v>3230339.4954816177</v>
+            <v>4660427.2260598093</v>
           </cell>
         </row>
         <row r="11">
@@ -448,7 +450,7 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC11">
-            <v>146522937.54380584</v>
+            <v>152907336.44207099</v>
           </cell>
         </row>
         <row r="12">
@@ -456,10 +458,10 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC12">
-            <v>186517247.59552073</v>
+            <v>243535915.54668447</v>
           </cell>
           <cell r="AJ12">
-            <v>8.4832623549225143</v>
+            <v>7.1910526348937314</v>
           </cell>
         </row>
         <row r="14">
@@ -467,7 +469,7 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC14">
-            <v>2839034.8776903236</v>
+            <v>3617360.6207693755</v>
           </cell>
         </row>
         <row r="15">
@@ -475,7 +477,7 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC15">
-            <v>139242932.32299128</v>
+            <v>148874420.22469702</v>
           </cell>
         </row>
         <row r="16">
@@ -483,10 +485,10 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC16">
-            <v>165713049.06567621</v>
+            <v>196745478.86250034</v>
           </cell>
           <cell r="AJ16">
-            <v>6.9600448085550592</v>
+            <v>5.5874972230858422</v>
           </cell>
         </row>
         <row r="18">
@@ -494,7 +496,7 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC18">
-            <v>32475552.018565163</v>
+            <v>42105990.356689379</v>
           </cell>
         </row>
         <row r="19">
@@ -502,7 +504,7 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC19">
-            <v>119461043.3264593</v>
+            <v>127278053.88793688</v>
           </cell>
         </row>
         <row r="20">
@@ -510,18 +512,18 @@
             <v>3.0298868400396018E-2</v>
           </cell>
           <cell r="AC20">
-            <v>191627499.97350323</v>
+            <v>255029313.86189362</v>
           </cell>
           <cell r="AJ20">
-            <v>8.8080428168042779</v>
+            <v>8.3473143203887297</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -541,23 +543,23 @@
       <sheetName val="MC_Middle_rd"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="E3">
-            <v>0.34483700771315484</v>
+            <v>0.19218334490044686</v>
           </cell>
           <cell r="AD3">
-            <v>161731068.10207102</v>
+            <v>172771482.31370461</v>
           </cell>
         </row>
         <row r="4">
           <cell r="AD4">
-            <v>315944491.16051567</v>
+            <v>626466015.46856248</v>
           </cell>
           <cell r="AJ4">
-            <v>63.235463664316299</v>
+            <v>60.151170615361032</v>
           </cell>
         </row>
         <row r="6">
@@ -568,10 +570,10 @@
             <v>5.7949999999999999</v>
           </cell>
           <cell r="AB6">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC6">
-            <v>24042119.341584273</v>
+            <v>32156482.744347159</v>
           </cell>
         </row>
         <row r="7">
@@ -582,116 +584,116 @@
             <v>5.7949999999999999</v>
           </cell>
           <cell r="AB7">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC7">
-            <v>124692530.23349349</v>
+            <v>135226790.70786035</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>49838.638699336705</v>
+            <v>110262.47499853253</v>
           </cell>
           <cell r="J8">
             <v>5.0780000000000003</v>
           </cell>
           <cell r="AB8">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC8">
-            <v>341452548.70807278</v>
+            <v>717779235.99124503</v>
           </cell>
           <cell r="AJ8">
-            <v>14.740670551263682</v>
+            <v>7.4904341012355777</v>
           </cell>
         </row>
         <row r="10">
           <cell r="AB10">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC10">
-            <v>174396.51380236723</v>
+            <v>1961377.100484432</v>
           </cell>
         </row>
         <row r="11">
           <cell r="AB11">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC11">
-            <v>150753497.95890492</v>
+            <v>160312214.18686602</v>
           </cell>
         </row>
         <row r="12">
           <cell r="AB12">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC12">
-            <v>346147518.98509246</v>
+            <v>726383070.9501816</v>
           </cell>
           <cell r="AJ12">
-            <v>14.036369417970834</v>
+            <v>7.3127951688628707</v>
           </cell>
         </row>
         <row r="14">
           <cell r="AB14">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC14">
-            <v>173146.74966186369</v>
+            <v>1964288.7213188906</v>
           </cell>
         </row>
         <row r="15">
           <cell r="AB15">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC15">
-            <v>150214095.17583138</v>
+            <v>159291599.5585095</v>
           </cell>
         </row>
         <row r="16">
           <cell r="AB16">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC16">
-            <v>346679905.26551139</v>
+            <v>727358703.04598987</v>
           </cell>
           <cell r="AJ16">
-            <v>15.494530279637313</v>
+            <v>9.6597367986476428</v>
           </cell>
         </row>
         <row r="18">
           <cell r="AB18">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC18">
-            <v>11807500.905444136</v>
+            <v>17759614.462570477</v>
           </cell>
         </row>
         <row r="19">
           <cell r="AB19">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC19">
-            <v>140372669.49220821</v>
+            <v>152782967.60203192</v>
           </cell>
         </row>
         <row r="20">
           <cell r="AB20">
-            <v>2.9365065045595117E-2</v>
+            <v>2.4342413182646187E-2</v>
           </cell>
           <cell r="AC20">
-            <v>366567694.61587125</v>
+            <v>763804355.98358667</v>
           </cell>
           <cell r="AJ20">
-            <v>16.889368532371112</v>
+            <v>8.7307180669258564</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -711,23 +713,23 @@
       <sheetName val="MC_Middle_rd"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
-          <cell r="F3">
-            <v>61666.396631476637</v>
+          <cell r="E3">
+            <v>0.20219607031889025</v>
           </cell>
           <cell r="AD3">
-            <v>176336280.72931218</v>
+            <v>187701822.1695177</v>
           </cell>
         </row>
         <row r="4">
           <cell r="AD4">
-            <v>325950437.45469242</v>
+            <v>691538189.32040691</v>
           </cell>
           <cell r="AJ4">
-            <v>31.78690752144718</v>
+            <v>52.889536926264867</v>
           </cell>
         </row>
         <row r="6">
@@ -738,10 +740,10 @@
             <v>5.8360000000000003</v>
           </cell>
           <cell r="AB6">
-            <v>2.9812406067520097E-2</v>
+            <v>2.4956550618816121E-2</v>
           </cell>
           <cell r="AC6">
-            <v>44320604.680772059</v>
+            <v>86264514.954630882</v>
           </cell>
         </row>
         <row r="7">
@@ -752,116 +754,116 @@
             <v>5.8360000000000003</v>
           </cell>
           <cell r="AB7">
-            <v>2.9812406067520097E-2</v>
+            <v>2.4956550618816121E-2</v>
           </cell>
           <cell r="AC7">
-            <v>120625309.30033642</v>
+            <v>123239204.09555539</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>109979.17741374573</v>
+            <v>243316.76418970295</v>
           </cell>
           <cell r="J8">
             <v>5.6630000000000003</v>
           </cell>
           <cell r="AB8">
-            <v>2.9812406067520093E-2</v>
+            <v>2.4956550618816128E-2</v>
           </cell>
           <cell r="AC8">
-            <v>659532798.65816772</v>
+            <v>1320576532.6827729</v>
           </cell>
           <cell r="AJ8">
-            <v>21.109051641674252</v>
+            <v>13.768616276907036</v>
           </cell>
         </row>
         <row r="10">
           <cell r="AB10">
-            <v>2.9812406067520097E-2</v>
+            <v>2.4956550618816121E-2</v>
           </cell>
           <cell r="AC10">
-            <v>7977528.5202530669</v>
+            <v>12171919.547638949</v>
           </cell>
         </row>
         <row r="11">
           <cell r="AB11">
-            <v>2.9812406067520097E-2</v>
+            <v>2.4956550618816121E-2</v>
           </cell>
           <cell r="AC11">
-            <v>148821034.3744539</v>
+            <v>151434929.16967288</v>
           </cell>
         </row>
         <row r="12">
           <cell r="AB12">
-            <v>2.9812406067520093E-2</v>
+            <v>2.4956550618816128E-2</v>
           </cell>
           <cell r="AC12">
-            <v>697446524.47244811</v>
+            <v>1390599774.332607</v>
           </cell>
           <cell r="AJ12">
-            <v>23.916282208970085</v>
+            <v>17.152086370510101</v>
           </cell>
         </row>
         <row r="14">
           <cell r="AB14">
-            <v>2.9812406067520097E-2</v>
+            <v>2.4956550618816121E-2</v>
           </cell>
           <cell r="AC14">
-            <v>7977950.7407193435</v>
+            <v>12341702.515528539</v>
           </cell>
         </row>
         <row r="15">
           <cell r="AB15">
-            <v>2.9812406067520097E-2</v>
+            <v>2.4956550618816121E-2</v>
           </cell>
           <cell r="AC15">
-            <v>134079399.87054683</v>
+            <v>140361769.29083994</v>
           </cell>
         </row>
         <row r="16">
           <cell r="AB16">
-            <v>2.9812406067520093E-2</v>
+            <v>2.4956550618816128E-2</v>
           </cell>
           <cell r="AC16">
-            <v>714286171.96726477</v>
+            <v>1421701088.7115653</v>
           </cell>
           <cell r="AJ16">
-            <v>22.60172077459157</v>
+            <v>16.520942619675285</v>
           </cell>
         </row>
         <row r="18">
           <cell r="AB18">
-            <v>2.9812406067520097E-2</v>
+            <v>2.4956550618816121E-2</v>
           </cell>
           <cell r="AC18">
-            <v>29299299.309453666</v>
+            <v>57544995.913598232</v>
           </cell>
         </row>
         <row r="19">
           <cell r="AB19">
-            <v>2.9812406067520097E-2</v>
+            <v>2.4956550618816121E-2</v>
           </cell>
           <cell r="AC19">
-            <v>142341753.7975018</v>
+            <v>145542187.1580129</v>
           </cell>
         </row>
         <row r="20">
           <cell r="AB20">
-            <v>2.9812406067520093E-2</v>
+            <v>2.4956550618816128E-2</v>
           </cell>
           <cell r="AC20">
-            <v>767819023.64940715</v>
+            <v>1520571451.068078</v>
           </cell>
           <cell r="AJ20">
-            <v>24.971480745017818</v>
+            <v>16.842505415548153</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1166,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84FB52D-E3D7-4623-AE1E-46FF6E9E194D}">
   <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,15 +1221,15 @@
       </c>
       <c r="E3" s="5">
         <f>SUMPRODUCT([1]Mappings!$AD$3:$AD$4)</f>
-        <v>1550787788.0315146</v>
+        <v>1603103182.8958671</v>
       </c>
       <c r="F3" s="5">
         <f>E3/C3</f>
-        <v>1356.6907873813352</v>
+        <v>1402.458373893463</v>
       </c>
       <c r="G3">
         <f>[1]Mappings!$AJ$4/100</f>
-        <v>0.34181755546546438</v>
+        <v>0.52454458093841372</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="4"/>
@@ -1248,15 +1250,15 @@
       </c>
       <c r="E4" s="5">
         <f>SUMPRODUCT([2]Mappings!$AD$3:$AD$4)</f>
-        <v>317034535.31772393</v>
+        <v>325370364.37728608</v>
       </c>
       <c r="F4" s="5">
         <f>E4/C4</f>
-        <v>844.19020772890099</v>
+        <v>866.38660743132471</v>
       </c>
       <c r="G4">
         <f>[2]Mappings!$AJ$4/100</f>
-        <v>0.33794482368834294</v>
+        <v>0.63302040978198748</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="4"/>
@@ -1268,7 +1270,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUMPRODUCT([3]Mappings!$F$6:$F$8,[3]Mappings!$J$6:$J$8)</f>
-        <v>405094.79455606145</v>
+        <v>711927.03528337786</v>
       </c>
       <c r="D5" s="1">
         <f>SUM([1]Mappings!$AB$3:$AB$3)</f>
@@ -1276,15 +1278,15 @@
       </c>
       <c r="E5" s="5">
         <f>SUMPRODUCT([3]Mappings!$AD$3:$AD$4)</f>
-        <v>477675559.26258671</v>
+        <v>799237497.78226709</v>
       </c>
       <c r="F5" s="5">
         <f>E5/C5</f>
-        <v>1179.1698281042236</v>
+        <v>1122.639622000218</v>
       </c>
       <c r="G5" s="3">
         <f>[3]Mappings!$AJ$4/100</f>
-        <v>0.63235463664316294</v>
+        <v>0.60151170615361027</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="4"/>
@@ -1296,7 +1298,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUMPRODUCT([4]Mappings!$F$6:$F$8,[4]Mappings!$J$6:$J$8)</f>
-        <v>982697.17243533977</v>
+        <v>1737787.9263475856</v>
       </c>
       <c r="D6" s="1">
         <f>SUM([1]Mappings!$AB$3:$AB$3)</f>
@@ -1304,15 +1306,15 @@
       </c>
       <c r="E6" s="5">
         <f>SUMPRODUCT([4]Mappings!$AD$3:$AD$4)</f>
-        <v>502286718.1840046</v>
+        <v>879240011.48992467</v>
       </c>
       <c r="F6" s="5">
         <f>E6/C6</f>
-        <v>511.13072498135676</v>
+        <v>505.95357359737028</v>
       </c>
       <c r="G6">
         <f>[4]Mappings!$AJ$4/100</f>
-        <v>0.31786907521447177</v>
+        <v>0.52889536926264868</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="4"/>
@@ -1324,7 +1326,7 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(C3:C6)</f>
-        <v>2906407.1659026681</v>
+        <v>3968330.1605422301</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D3:D6)</f>
@@ -1332,15 +1334,15 @@
       </c>
       <c r="E7" s="5">
         <f>SUM(E3:E6)</f>
-        <v>2847784600.7958302</v>
+        <v>3606951056.5453453</v>
       </c>
       <c r="F7" s="5">
         <f>E7/C7</f>
-        <v>979.82988557329998</v>
+        <v>908.93421429745501</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">SUMPRODUCT(G3:G6,(E3:E6/E7))</f>
-        <v>0.38589591358035213</v>
+        <v>0.55244493725708976</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="4"/>
@@ -1368,15 +1370,15 @@
       </c>
       <c r="E9" s="5">
         <f>SUMPRODUCT([1]Mappings!$AC$6:$AC$8)</f>
-        <v>1620651659.6152816</v>
+        <v>1827816255.0579622</v>
       </c>
       <c r="F9" s="5">
         <f>E9/C9</f>
-        <v>1417.8104787278878</v>
+        <v>1599.0462998233236</v>
       </c>
       <c r="G9" s="3">
         <f>[1]Mappings!$AJ$8/100</f>
-        <v>8.8098868843439537E-2</v>
+        <v>6.3911146191701559E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1393,15 +1395,15 @@
       </c>
       <c r="E10" s="5">
         <f>SUMPRODUCT([2]Mappings!$AC$6:$AC$8)</f>
-        <v>334463674.97815859</v>
+        <v>401694802.57091075</v>
       </c>
       <c r="F10" s="5">
         <f>E10/C10</f>
-        <v>890.60000663529729</v>
+        <v>1069.6210697869644</v>
       </c>
       <c r="G10">
         <f>[2]Mappings!$AJ$8/100</f>
-        <v>6.703962232036835E-2</v>
+        <v>5.8331865043635661E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1410,23 +1412,23 @@
       </c>
       <c r="C11" s="5">
         <f>SUMPRODUCT([3]Mappings!$F$6:$F$8,[3]Mappings!$J$6:$J$8)</f>
-        <v>405094.79455606145</v>
+        <v>711927.03528337786</v>
       </c>
       <c r="D11" s="1">
         <f>SUM([3]Mappings!$AB$6:$AB$8)</f>
-        <v>8.8095195136785348E-2</v>
+        <v>7.3027239547938563E-2</v>
       </c>
       <c r="E11" s="5">
         <f>SUMPRODUCT([3]Mappings!$AC$6:$AC$8)</f>
-        <v>490187198.28315055</v>
+        <v>885162509.4434526</v>
       </c>
       <c r="F11" s="5">
         <f>E11/C11</f>
-        <v>1210.055534829424</v>
+        <v>1243.3331866532073</v>
       </c>
       <c r="G11" s="3">
         <f>[3]Mappings!$AJ$8/100</f>
-        <v>0.14740670551263682</v>
+        <v>7.4904341012355782E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1435,23 +1437,23 @@
       </c>
       <c r="C12" s="5">
         <f>SUMPRODUCT([4]Mappings!$F$6:$F$8,[4]Mappings!$J$6:$J$8)</f>
-        <v>982697.17243533977</v>
+        <v>1737787.9263475856</v>
       </c>
       <c r="D12" s="1">
         <f>SUM([4]Mappings!$AB$6:$AB$8)</f>
-        <v>8.9437218202560287E-2</v>
+        <v>7.4869651856448366E-2</v>
       </c>
       <c r="E12" s="5">
         <f>SUMPRODUCT([4]Mappings!$AC$6:$AC$8)</f>
-        <v>824478712.63927627</v>
+        <v>1530080251.7329593</v>
       </c>
       <c r="F12" s="5">
         <f>E12/C12</f>
-        <v>838.9957107498708</v>
+        <v>880.47582132120215</v>
       </c>
       <c r="G12" s="3">
         <f>[4]Mappings!$AJ$8/100</f>
-        <v>0.21109051641674254</v>
+        <v>0.13768616276907036</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1460,37 +1462,38 @@
       </c>
       <c r="C13" s="5">
         <f>SUM(C9:C12)</f>
-        <v>2906407.1659026681</v>
+        <v>3968330.1605422301</v>
       </c>
       <c r="D13" s="1">
         <f>SUM(D9:D12)</f>
-        <v>0.36163032448374527</v>
+        <v>0.33199480254878655</v>
       </c>
       <c r="E13" s="5">
         <f>SUM(E9:E12)</f>
-        <v>3269781245.5158672</v>
+        <v>4644753818.8052845</v>
       </c>
       <c r="F13" s="5">
         <f>E13/C13</f>
-        <v>1125.0251801868039</v>
+        <v>1170.4554890590625</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">SUMPRODUCT(G9:G12,(E9:E12/E13))</f>
-        <v>0.12584830077703602</v>
+        <v>8.9826683657636963E-2</v>
       </c>
       <c r="H13" s="1">
         <f>F13-F7</f>
-        <v>145.19529461350396</v>
-      </c>
-      <c r="I13">
+        <v>261.52127476160751</v>
+      </c>
+      <c r="I13" s="6">
         <f>F13/F7</f>
-        <v>1.1481841866137303</v>
+        <v>1.2877229954026386</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1509,16 +1512,17 @@
       </c>
       <c r="E15" s="5">
         <f>SUMPRODUCT([1]Mappings!$AC$10:$AC$12)</f>
-        <v>1691796583.3356783</v>
+        <v>1872172227.5910423</v>
       </c>
       <c r="F15" s="5">
         <f>E15/C15</f>
-        <v>1480.0508853943147</v>
+        <v>1637.8506673618087</v>
       </c>
       <c r="G15" s="3">
         <f>[1]Mappings!$AJ$12/100</f>
-        <v>9.3346823541083132E-2</v>
-      </c>
+        <v>7.4792023352392184E-2</v>
+      </c>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -1534,16 +1538,17 @@
       </c>
       <c r="E16" s="5">
         <f>SUMPRODUCT([2]Mappings!$AC$10:$AC$12)</f>
-        <v>336270524.63480818</v>
+        <v>401103679.21481526</v>
       </c>
       <c r="F16" s="5">
         <f>E16/C16</f>
-        <v>895.41123259670007</v>
+        <v>1068.0470439532312</v>
       </c>
       <c r="G16">
         <f>[2]Mappings!$AJ$12/100</f>
-        <v>8.4832623549225147E-2</v>
-      </c>
+        <v>7.1910526348937312E-2</v>
+      </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -1551,24 +1556,25 @@
       </c>
       <c r="C17" s="5">
         <f>SUMPRODUCT([3]Mappings!$F$6:$F$8,[3]Mappings!$J$6:$J$8)</f>
-        <v>405094.79455606145</v>
+        <v>711927.03528337786</v>
       </c>
       <c r="D17" s="1">
         <f>SUM([3]Mappings!$AB$10:$AB$12)</f>
-        <v>8.8095195136785348E-2</v>
+        <v>7.3027239547938563E-2</v>
       </c>
       <c r="E17" s="5">
         <f>SUMPRODUCT([3]Mappings!$AC$10:$AC$12)</f>
-        <v>497075413.45779979</v>
+        <v>888656662.23753202</v>
       </c>
       <c r="F17" s="5">
         <f>E17/C17</f>
-        <v>1227.0594935749268</v>
+        <v>1248.2412075892132</v>
       </c>
       <c r="G17" s="3">
         <f>[3]Mappings!$AJ$12/100</f>
-        <v>0.14036369417970834</v>
-      </c>
+        <v>7.3127951688628706E-2</v>
+      </c>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -1576,24 +1582,25 @@
       </c>
       <c r="C18" s="5">
         <f>SUMPRODUCT([4]Mappings!$F$6:$F$8,[4]Mappings!$J$6:$J$8)</f>
-        <v>982697.17243533977</v>
+        <v>1737787.9263475856</v>
       </c>
       <c r="D18" s="1">
         <f>SUM([4]Mappings!$AB$10:$AB$12)</f>
-        <v>8.9437218202560287E-2</v>
+        <v>7.4869651856448366E-2</v>
       </c>
       <c r="E18" s="5">
         <f>SUMPRODUCT([4]Mappings!$AC$10:$AC$12)</f>
-        <v>854245087.36715508</v>
+        <v>1554206623.0499189</v>
       </c>
       <c r="F18" s="5">
         <f>E18/C18</f>
-        <v>869.28619653005399</v>
+        <v>894.35920199796146</v>
       </c>
       <c r="G18" s="3">
         <f>[4]Mappings!$AJ$12/100</f>
-        <v>0.23916282208970085</v>
-      </c>
+        <v>0.171520863705101</v>
+      </c>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -1601,37 +1608,38 @@
       </c>
       <c r="C19" s="5">
         <f>SUM(C15:C18)</f>
-        <v>2906407.1659026681</v>
+        <v>3968330.1605422301</v>
       </c>
       <c r="D19" s="1">
         <f>SUM(D15:D18)</f>
-        <v>0.36163032448374527</v>
+        <v>0.33199480254878655</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(E15:E18)</f>
-        <v>3379387608.7954416</v>
+        <v>4716139192.0933084</v>
       </c>
       <c r="F19" s="5">
         <f>E19/C19</f>
-        <v>1162.7371582487397</v>
+        <v>1188.4442577350717</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" ref="G19">SUMPRODUCT(G15:G18,(E15:E18)/E19)</f>
-        <v>0.13627485463056235</v>
+        <v>0.10611044523942365</v>
       </c>
       <c r="H19" s="1">
         <f>F19-F7</f>
-        <v>182.90727267543969</v>
-      </c>
-      <c r="I19">
+        <v>279.51004343761667</v>
+      </c>
+      <c r="I19" s="6">
         <f>F19/F7</f>
-        <v>1.1866724779153071</v>
+        <v>1.3075140522173645</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1650,16 +1658,17 @@
       </c>
       <c r="E21" s="5">
         <f>SUMPRODUCT([1]Mappings!$AC$14:$AC$16)</f>
-        <v>1668322898.1041384</v>
+        <v>1832780031.3120899</v>
       </c>
       <c r="F21" s="5">
         <f>E21/C21</f>
-        <v>1459.5151726776548</v>
+        <v>1603.3888085576395</v>
       </c>
       <c r="G21" s="3">
         <f>[1]Mappings!$AJ$16/100</f>
-        <v>4.3464556252975343E-2</v>
-      </c>
+        <v>4.4314928500850323E-2</v>
+      </c>
+      <c r="I21" s="6"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1676,16 +1685,17 @@
       </c>
       <c r="E22" s="5">
         <f>SUMPRODUCT([2]Mappings!$AC$14:$AC$16)</f>
-        <v>307795016.26635778</v>
+        <v>349237259.70796674</v>
       </c>
       <c r="F22" s="5">
         <f>E22/C22</f>
-        <v>819.58748897628607</v>
+        <v>929.93867221461164</v>
       </c>
       <c r="G22">
         <f>[2]Mappings!$AJ$16/100</f>
-        <v>6.960044808555059E-2</v>
-      </c>
+        <v>5.5874972230858425E-2</v>
+      </c>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -1693,24 +1703,25 @@
       </c>
       <c r="C23" s="5">
         <f>SUMPRODUCT([3]Mappings!$F$6:$F$8,[3]Mappings!$J$6:$J$8)</f>
-        <v>405094.79455606145</v>
+        <v>711927.03528337786</v>
       </c>
       <c r="D23" s="1">
         <f>SUM([3]Mappings!$AB$13:$AB$16)</f>
-        <v>8.8095195136785348E-2</v>
+        <v>7.3027239547938563E-2</v>
       </c>
       <c r="E23" s="5">
         <f>SUMPRODUCT([3]Mappings!$AC$14:$AC$16)</f>
-        <v>497067147.19100463</v>
+        <v>888614591.3258183</v>
       </c>
       <c r="F23" s="5">
         <f>E23/C23</f>
-        <v>1227.039087815815</v>
+        <v>1248.1821131741558</v>
       </c>
       <c r="G23" s="3">
         <f>[3]Mappings!$AJ$16/100</f>
-        <v>0.15494530279637314</v>
-      </c>
+        <v>9.6597367986476432E-2</v>
+      </c>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -1718,24 +1729,25 @@
       </c>
       <c r="C24" s="5">
         <f>SUMPRODUCT([4]Mappings!$F$6:$F$8,[4]Mappings!$J$6:$J$8)</f>
-        <v>982697.17243533977</v>
+        <v>1737787.9263475856</v>
       </c>
       <c r="D24" s="1">
         <f>SUM([4]Mappings!$AB$13:$AB$16)</f>
-        <v>8.9437218202560287E-2</v>
+        <v>7.4869651856448366E-2</v>
       </c>
       <c r="E24" s="5">
         <f>SUMPRODUCT([4]Mappings!$AC$14:$AC$16)</f>
-        <v>856343522.57853091</v>
+        <v>1574404560.5179338</v>
       </c>
       <c r="F24" s="5">
         <f>E24/C24</f>
-        <v>871.4215799118698</v>
+        <v>905.98198816293734</v>
       </c>
       <c r="G24" s="3">
         <f>[4]Mappings!$AJ$16/100</f>
-        <v>0.22601720774591569</v>
-      </c>
+        <v>0.16520942619675286</v>
+      </c>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -1743,35 +1755,36 @@
       </c>
       <c r="C25" s="5">
         <f>SUM(C21:C24)</f>
-        <v>2906407.1659026681</v>
+        <v>3968330.1605422301</v>
       </c>
       <c r="D25" s="1">
         <f>SUM(D21:D24)</f>
-        <v>0.36163032448374527</v>
+        <v>0.33199480254878655</v>
       </c>
       <c r="E25" s="5">
         <f>SUM(E21:E24)</f>
-        <v>3329528584.1400318</v>
+        <v>4645036442.8638086</v>
       </c>
       <c r="F25" s="5">
         <f>E25/C25</f>
-        <v>1145.5822925298737</v>
+        <v>1170.5267089543563</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" ref="G25">SUMPRODUCT(G21:G24,(E21:E24)/E25)</f>
-        <v>0.10947561126696205</v>
+        <v>9.6162311846002629E-2</v>
       </c>
       <c r="H25" s="1">
         <f>F25-F7</f>
-        <v>165.75240695657374</v>
-      </c>
-      <c r="I25">
+        <v>261.59249465690129</v>
+      </c>
+      <c r="I25" s="6">
         <f>F25/F7</f>
-        <v>1.1691644737490241</v>
+        <v>1.2878013507931316</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F26" s="1"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1790,16 +1803,17 @@
       </c>
       <c r="E27" s="1">
         <f>SUMPRODUCT([1]Mappings!$AC$18:$AC$20)</f>
-        <v>1767953785.1307909</v>
+        <v>2005204479.752986</v>
       </c>
       <c r="F27" s="1">
         <f>E27/C27</f>
-        <v>1546.6762321152362</v>
+        <v>1754.2325684353243</v>
       </c>
       <c r="G27" s="3">
         <f>[1]Mappings!$AJ$20/100</f>
-        <v>6.2775584541235857E-2</v>
-      </c>
+        <v>5.5361319172665222E-2</v>
+      </c>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -1815,16 +1829,17 @@
       </c>
       <c r="E28" s="1">
         <f>SUMPRODUCT([2]Mappings!$AC$18:$AC$20)</f>
-        <v>343564095.3185277</v>
+        <v>424413358.10651988</v>
       </c>
       <c r="F28" s="1">
         <f>E28/C28</f>
-        <v>914.83233744385518</v>
+        <v>1130.1153692413943</v>
       </c>
       <c r="G28">
         <f>[2]Mappings!$AJ$20/100</f>
-        <v>8.8080428168042776E-2</v>
-      </c>
+        <v>8.3473143203887296E-2</v>
+      </c>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -1832,24 +1847,25 @@
       </c>
       <c r="C29">
         <f>SUMPRODUCT([3]Mappings!$F$6:$F$8,[3]Mappings!$J$6:$J$8)</f>
-        <v>405094.79455606145</v>
+        <v>711927.03528337786</v>
       </c>
       <c r="D29" s="1">
         <f>SUM([3]Mappings!$AB$18:$AB$20)</f>
-        <v>8.8095195136785348E-2</v>
+        <v>7.3027239547938563E-2</v>
       </c>
       <c r="E29" s="1">
         <f>SUMPRODUCT([3]Mappings!$AC$18:$AC$20)</f>
-        <v>518747865.01352358</v>
+        <v>934346938.04818904</v>
       </c>
       <c r="F29" s="1">
         <f>E29/C29</f>
-        <v>1280.5591974639249</v>
+        <v>1312.4195201777643</v>
       </c>
       <c r="G29" s="3">
         <f>[3]Mappings!$AJ$20/100</f>
-        <v>0.16889368532371113</v>
-      </c>
+        <v>8.7307180669258563E-2</v>
+      </c>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1857,24 +1873,25 @@
       </c>
       <c r="C30">
         <f>SUMPRODUCT([4]Mappings!$F$6:$F$8,[4]Mappings!$J$6:$J$8)</f>
-        <v>982697.17243533977</v>
+        <v>1737787.9263475856</v>
       </c>
       <c r="D30" s="1">
         <f>SUM([4]Mappings!$AB$18:$AB$20)</f>
-        <v>8.9437218202560287E-2</v>
+        <v>7.4869651856448366E-2</v>
       </c>
       <c r="E30" s="1">
         <f>SUMPRODUCT([4]Mappings!$AC$18:$AC$20)</f>
-        <v>939460076.75636268</v>
+        <v>1723658634.1396892</v>
       </c>
       <c r="F30" s="1">
         <f>E30/C30</f>
-        <v>956.00160772639038</v>
+        <v>991.86938061102035</v>
       </c>
       <c r="G30" s="3">
         <f>[4]Mappings!$AJ$20/100</f>
-        <v>0.24971480745017818</v>
-      </c>
+        <v>0.16842505415548154</v>
+      </c>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -1882,31 +1899,31 @@
       </c>
       <c r="C31" s="1">
         <f>SUM(C27:C30)</f>
-        <v>2906407.1659026681</v>
+        <v>3968330.1605422301</v>
       </c>
       <c r="D31" s="1">
         <f>SUM(D27:D30)</f>
-        <v>0.36163032448374527</v>
+        <v>0.33199480254878655</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E27:E30)</f>
-        <v>3569725822.2192049</v>
+        <v>5087623410.0473843</v>
       </c>
       <c r="F31" s="1">
         <f>E31/C31</f>
-        <v>1228.2263352837983</v>
+        <v>1282.0564832620214</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" ref="G31">SUMPRODUCT(G27:G30,(E27:E30)/E31)</f>
-        <v>0.1298295608272978</v>
+        <v>0.10187868404996317</v>
       </c>
       <c r="H31" s="1">
         <f>F31-F7</f>
-        <v>248.39644971049836</v>
-      </c>
-      <c r="I31">
+        <v>373.12226896456639</v>
+      </c>
+      <c r="I31" s="6">
         <f>F31/F7</f>
-        <v>1.2535097707957348</v>
+        <v>1.4105052523003161</v>
       </c>
     </row>
   </sheetData>
